--- a/Tutorialsninjapt/src/main/java/com/tutorialsninja/testdata/tutorialsninjaworkbook.xlsx
+++ b/Tutorialsninjapt/src/main/java/com/tutorialsninja/testdata/tutorialsninjaworkbook.xlsx
@@ -3,19 +3,15 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21727"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pankaj\Downloads\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73E631DB-0E7F-44FF-8B7E-14AB66C4FEB5}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{5873BC5F-FDC0-47D0-88E9-AFCF9A965B7E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{C550732C-5DE6-41A4-841B-505D7EA4F8A5}"/>
+    <workbookView xWindow="1560" yWindow="1560" windowWidth="20760" windowHeight="11820" xr2:uid="{C550732C-5DE6-41A4-841B-505D7EA4F8A5}"/>
   </bookViews>
   <sheets>
     <sheet name="Loginsheet" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
